--- a/results/tables/table_S2.xlsx
+++ b/results/tables/table_S2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">pFBA_flux</t>
+    <t xml:space="preserve">Units of flux</t>
   </si>
   <si>
     <t xml:space="preserve">Simulated glucose minimal media</t>
@@ -309,7 +309,7 @@
     <t xml:space="preserve">metabolite</t>
   </si>
   <si>
-    <t xml:space="preserve">shadow_price</t>
+    <t xml:space="preserve">shadow_price (AU)</t>
   </si>
   <si>
     <t xml:space="preserve">DM_atp_c median flux:</t>
@@ -319,6 +319,27 @@
   </si>
   <si>
     <t xml:space="preserve">Simulated peptide minimal media</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shadow_price </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(AU)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Objective flux sample distribution difference:</t>
@@ -354,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -395,6 +416,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -461,7 +488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,7 +501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,6 +511,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -498,7 +529,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,7 +553,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1170,18 +1201,18 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="11.52"/>
   </cols>
   <sheetData>
@@ -1228,6 +1259,9 @@
       <c r="F5" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
@@ -1242,10 +1276,10 @@
       <c r="F6" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="8" t="n">
         <v>318.86</v>
       </c>
     </row>
@@ -1311,7 +1345,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1322,7 +1356,10 @@
         <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,10 +1375,10 @@
       <c r="F13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="8" t="n">
         <v>163.47</v>
       </c>
     </row>
@@ -1424,11 +1461,11 @@
       <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>100</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/table_S2.xlsx
+++ b/results/tables/table_S2.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Metabolites" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Analysis" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Topology Included by Other Algorithms" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -319,27 +320,6 @@
   </si>
   <si>
     <t xml:space="preserve">Simulated peptide minimal media</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">shadow_price </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(AU)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Objective flux sample distribution difference:</t>
@@ -366,6 +346,33 @@
       </rPr>
       <t xml:space="preserve"> &lt;&lt; 0.001</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegrEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H+ exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen efflux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon dioxide efflux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pi exchange</t>
   </si>
 </sst>
 </file>
@@ -419,14 +426,15 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -488,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -529,18 +537,30 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1200,7 +1220,7 @@
   </sheetPr>
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -1356,7 +1376,7 @@
         <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>92</v>
@@ -1462,10 +1482,10 @@
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1483,4 +1503,260 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/results/tables/table_S2.xlsx
+++ b/results/tables/table_S2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="114">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t xml:space="preserve">Pi exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcript abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low confidence: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High confidence:</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -553,6 +565,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,18 +1530,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.52"/>
@@ -1749,6 +1769,50 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
